--- a/Table/Table_xls/z战斗AI/条件表.xlsx
+++ b/Table/Table_xls/z战斗AI/条件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,46 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
-0，为不考虑奖励次数
-1，为需要具备奖励次数</t>
+          <t xml:space="preserve">，为不考虑奖励次数
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，为需要具备奖励次数</t>
         </r>
       </text>
     </comment>
@@ -40,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="809">
   <si>
     <t>id</t>
   </si>
@@ -4228,12 +4260,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4307,7 +4339,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4320,9 +4426,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4336,65 +4458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4404,31 +4467,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4449,12 +4489,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="50">
@@ -4580,7 +4628,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4592,7 +4718,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4604,7 +4754,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4616,133 +4790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4832,65 +4880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4913,8 +4907,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4929,153 +4947,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5459,7 +5507,12 @@
     <cellStyle name="常规 3" xfId="50"/>
     <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5786,12 +5839,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I563"/>
   <sheetViews>
@@ -17482,7 +17534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D4:N196"/>
   <sheetViews>
